--- a/NoAlly/Assets/Excel/Maneuvar/ManeuverTable.xlsx
+++ b/NoAlly/Assets/Excel/Maneuvar/ManeuverTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\2DActionGameA\NoAlly\Assets\Excel\Maneuvar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D343AD42-295E-437F-8DC8-4C45BD623A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65877AD-F796-48DC-AE58-BCD65D3B3404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3084" yWindow="84" windowWidth="17280" windowHeight="8964" xr2:uid="{0AEB9E87-A8FD-4B2E-BE60-C3DB6691D5C8}"/>
+    <workbookView xWindow="8904" yWindow="2724" windowWidth="17280" windowHeight="8964" xr2:uid="{0AEB9E87-A8FD-4B2E-BE60-C3DB6691D5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="ManeuverTable" sheetId="1" r:id="rId1"/>
